--- a/plactice/singular patch/x軸上のstress.xlsx
+++ b/plactice/singular patch/x軸上のstress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-yuu\Desktop\研究室\research\Oreto-IGA\plactice\singular patch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunaoka\Desktop\研究室\research\Oreto-IGA\plactice\singular patch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ABA87A-45B7-49E5-98D6-E9C18EE412AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DB3A03-CC2B-43B5-9F99-86B45A62698C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="28110" windowHeight="16440" xr2:uid="{ADB0BC41-2761-48F5-957A-74AF08DE19F7}"/>
   </bookViews>
@@ -16,28 +16,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$O$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$P$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>element num.</t>
     <phoneticPr fontId="1"/>
@@ -211,10 +202,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>r [mm]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>σ=</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -265,6 +252,14 @@
   </si>
   <si>
     <t>COD [mm]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x [mm]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r [mm]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -361,385 +356,763 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Reference solution</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$3676</c:f>
+              <c:f>Sheet1!$E$3:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3675"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4.9999999999998934E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0049999999999999</c:v>
+                  <c:v>2.0000000000000018E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02</c:v>
+                  <c:v>4.4999999999999929E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0449999999999999</c:v>
+                  <c:v>8.0000000000000071E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.08</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.125</c:v>
+                  <c:v>0.17999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.18</c:v>
+                  <c:v>0.24500000000000011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2450000000000001</c:v>
+                  <c:v>0.32000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.32</c:v>
+                  <c:v>0.40500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.405</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0.71249999999999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5</c:v>
+                  <c:v>0.92500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7124999999999999</c:v>
+                  <c:v>1.1375000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.925</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1375000000000002</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.35</c:v>
+                  <c:v>1.7749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5625</c:v>
+                  <c:v>1.9874999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7749999999999999</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9874999999999998</c:v>
+                  <c:v>2.4125000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2</c:v>
+                  <c:v>2.625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4125000000000001</c:v>
+                  <c:v>2.625</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.625</c:v>
+                  <c:v>2.8374999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.625</c:v>
+                  <c:v>3.05</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.8374999999999999</c:v>
+                  <c:v>3.2625000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.05</c:v>
+                  <c:v>3.4749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.2625000000000002</c:v>
+                  <c:v>3.6875</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.4749999999999996</c:v>
+                  <c:v>3.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.6875</c:v>
+                  <c:v>4.1124999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>4.3249999999999904</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.1124999999999998</c:v>
+                  <c:v>4.5374999999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.3249999999999904</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.5374999999999996</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.75</c:v>
+                  <c:v>4.9625000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.75</c:v>
+                  <c:v>5.1749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.9625000000000004</c:v>
+                  <c:v>5.3875000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.1749999999999998</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.3875000000000002</c:v>
+                  <c:v>5.8125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.6</c:v>
+                  <c:v>6.0250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.8125</c:v>
+                  <c:v>6.2374999999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.0250000000000004</c:v>
+                  <c:v>6.4499999999999904</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.2374999999999998</c:v>
+                  <c:v>6.6624999999999996</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.4499999999999904</c:v>
+                  <c:v>6.875</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.6624999999999996</c:v>
+                  <c:v>6.875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.875</c:v>
+                  <c:v>7.0875000000000004</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.875</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.0875000000000004</c:v>
+                  <c:v>7.5124999999999904</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>7.7249999999999996</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.5124999999999904</c:v>
+                  <c:v>7.9375</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.7249999999999996</c:v>
+                  <c:v>8.15</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.9375</c:v>
+                  <c:v>8.3625000000000007</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.15</c:v>
+                  <c:v>8.5749999999999904</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.3625000000000007</c:v>
+                  <c:v>8.7874999999999908</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.5749999999999904</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9.7874999999999908</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$3676</c:f>
+              <c:f>Sheet1!$T$3:$T$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3675"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>147.1535543328757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>73.576777166437026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>49.051184777624741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>36.788388583218513</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>29.430710866574824</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>24.525592388812356</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>21.021936333267728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>18.394194291609264</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>16.350394925874902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>14.715355433287412</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>14.715355433287412</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>12.327168270267737</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>10.818944483860465</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>9.7561856518742989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>8.955480125019692</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>8.3242620915582677</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>7.8100997365722549</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>7.3807788024238858</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>7.0152704465457045</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>6.6991869513328295</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>6.4223076334494529</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>6.4223076334494529</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>6.177145392749674</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>5.9580732600229256</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>5.7607694985146125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>5.5818524751542666</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>5.4186330820946296</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>5.2689424512770495</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>5.1310093158312107</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>5.003370950697831</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>4.8848073409198323</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>4.774291741664344</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>4.774291741664344</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>4.6709530149970959</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>4.574046565501912</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>4.48293164693471</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>4.3970534525973566</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>4.3159288416107904</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>4.2391348597524674</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>4.1662994304450507</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>4.0970937471226794</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>4.0312260112861322</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>3.9684362436880374</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>3.9684362436880374</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>3.9084919578643169</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>3.8511845316002553</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>3.7963261470585881</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>3.7437471971601859</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>3.6932940765150111</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>3.6448272912871658</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>3.5982198349664887</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>3.5533557869386443</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>3.5101290986133393</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>3.4684425381492781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9FC0-4826-9563-B94D9722EE15}"/>
+              <c16:uniqueId val="{00000000-195A-44A3-8D26-3C13BB3A20D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Singular patch</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>4.9999999999998934E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999929E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000071E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71249999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9874999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4125000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8374999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2625000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1124999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3249999999999904</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.5374999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.9625000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.1749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.3875000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.8125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.0250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.2374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.4499999999999904</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.6624999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.0875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.5124999999999904</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.7249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.9375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.3625000000000007</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.5749999999999904</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.7874999999999908</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>87.371518709303302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.4237155936625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.774447888448897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.949814035842099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.855033724278002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.125180183235301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.1752847967762</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.7128632569319</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.575424281497501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.6654731011499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.0509055232843</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.5013848950002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0125770664804</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.584482037724699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.2170998087333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.9104303795059</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.6644737500428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.479229920343901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.3546988904091</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.2908806602385</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.2877752298321</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.2877752298321</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.332918660719701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.3673628713928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.391107861851401</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.4041536320956</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4065001821252</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.398147511940399</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.379095621541101</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.349344510927301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.308894180098999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.2577446290562</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.2577446290562</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.2101005525478</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.168218171647201</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.1320974863545</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.1017384966697</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.077141202592699</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.058305604123699</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.0452317012625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.0379194940092</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.0363689823638</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.040580166326301</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.040580166326301</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.047385974906399</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.0488311694497</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.0449157499562</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.0356397164258</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.0210030688587</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.001005807254799</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.9756479316141498</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.9449294419366296</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.9088503382223205</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.8674106204712206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-195A-44A3-8D26-3C13BB3A20D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -751,12 +1124,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1475492559"/>
-        <c:axId val="1475473007"/>
+        <c:axId val="1851069616"/>
+        <c:axId val="1850441504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1475492559"/>
+        <c:axId val="1851069616"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -812,13 +1186,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1475473007"/>
+        <c:crossAx val="1850441504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1475473007"/>
+        <c:axId val="1850441504"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -840,7 +1215,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -874,7 +1249,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1475492559"/>
+        <c:crossAx val="1851069616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1488,54 +1863,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>173355</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>137286</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>162173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>129563</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00EB9749-3600-465A-8440-B25501B54AC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361405</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>58146</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>609092</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>78082</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>112857</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>175759</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1551,15 +1890,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9471787" y="6355852"/>
-          <a:ext cx="8024570" cy="2485230"/>
+          <a:off x="15041110" y="10056967"/>
+          <a:ext cx="7909335" cy="2478880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1570,16 +1909,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>440054</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>75203</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>118258</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>206498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>54996</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>208527</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>122231</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>115704</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1595,15 +1934,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9550436" y="4579968"/>
-          <a:ext cx="6037594" cy="1702147"/>
+          <a:off x="15022082" y="8084233"/>
+          <a:ext cx="5954296" cy="1702147"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1614,16 +1953,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>116205</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22618</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>172234</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>229651</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>130194</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>285681</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>219841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1639,21 +1978,57 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15451455" y="3223018"/>
-          <a:ext cx="6114195" cy="3768986"/>
+          <a:off x="15076058" y="4183175"/>
+          <a:ext cx="6063770" cy="3690284"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171263</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>608293</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46839C29-5271-42AE-9B9F-2A5257EFA421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1956,20 +2331,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7161996-13D3-47C0-B905-AB4C4C6C6006}">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1980,52 +2355,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>1</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2039,6 +2417,7 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <f>D2-1</f>
         <v>0</v>
       </c>
       <c r="F2">
@@ -2065,25 +2444,28 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>20</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>13</v>
       </c>
-      <c r="S2">
-        <f>_xlfn.SEC(POWER((PI()*P$1)/(2*P$2),1/2))*(1-0.025*(P$1/P$2)^2+0.06*(P$1/P$2)^4)*P$3*POWER(P$1/D2,1/2)</f>
-        <v>10.405327614447835</v>
-      </c>
-      <c r="T2">
-        <f>4*(1-P$5^2)*P$3*P$1/P$4*(1+0.065*(2*P$1/P$2)-0.241*(2*P$1/P$2)^2+0.376*(2*P$1/P$2)^3-6.64*(2*P$1/P$2)^4+4.93*(2*P$1/P$2)^5)</f>
-        <v>1.7737955009708734E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T2" t="e">
+        <f>_xlfn.SEC(POWER((PI()*Q$1)/(2*Q$2),1/2))*(1-0.025*(Q$1/Q$2)^2+0.06*(Q$1/Q$2)^4)*Q$3*POWER(Q$1/E2,1/2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U2">
+        <f>4*(1-Q$5^2)*Q$3*Q$1/Q$4*(1+0.065*(2*Q$1/Q$2)-0.241*(2*Q$1/Q$2)^2+0.376*(2*Q$1/Q$2)^3-6.64*(2*Q$1/Q$2)^4+4.93*(2*Q$1/Q$2)^5)/2</f>
+        <v>8.8689775048543672E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2097,47 +2479,51 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <f t="shared" ref="E3:E56" si="0">D3-1</f>
+        <v>4.9999999999998934E-3</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>79.557791972120796</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>87.371518709303302</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>6.3678441820454799</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>1.8603251649499999E-4</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2.3534244250600001E-4</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>8.0370848899999995E-5</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S57" si="0">_xlfn.SEC(POWER((PI()*P$1)/(2*P$2),1/2))*(1-0.025*(P$1/P$2)^2+0.06*(P$1/P$2)^4)*P$3*POWER(P$1/D3,1/2)</f>
-        <v>10.37941144067028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T3">
+        <f t="shared" ref="T3:T56" si="1">_xlfn.SEC(POWER((PI()*Q$1)/(2*Q$2),1/2))*(1-0.025*(Q$1/Q$2)^2+0.06*(Q$1/Q$2)^4)*Q$3*POWER(Q$1/E3,1/2)</f>
+        <v>147.1535543328757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2151,48 +2537,52 @@
         <v>1.02</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>37.272112189715699</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>46.4237155936625</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4.2033436167050198</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>7.6759092286999997E-5</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.3451192930199999E-4</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>5.3051909725E-5</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4">
         <f>206*10^3</f>
         <v>206000</v>
       </c>
-      <c r="Q4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>10.302809571312864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="R4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>73.576777166437026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2206,47 +2596,51 @@
         <v>1.0449999999999999</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.4999999999999929E-2</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>23.1768855955807</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>32.774447888448897</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.8866564156087202</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>4.0334617550999999E-5</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.00901758234E-4</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3.6433527575999999E-5</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5">
+        <v>0.3</v>
+      </c>
+      <c r="R5" t="s">
         <v>19</v>
       </c>
-      <c r="P5">
-        <v>0.3</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>10.17882419413513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>49.051184777624741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2260,40 +2654,44 @@
         <v>1.08</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>16.1292722985132</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>25.949814035842099</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2.1167152501887099</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>2.2122380183E-5</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>8.4096672699999995E-5</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.6715823546000001E-5</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2"/>
+      <c r="N6">
+        <v>0</v>
+      </c>
       <c r="P6" s="2"/>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>10.012531165346173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="Q6" s="2"/>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>36.788388583218513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2307,39 +2705,43 @@
         <v>1.125</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>11.9007043202727</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>21.855033724278002</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.6190393301777299</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>1.1195037762000001E-5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>7.4013621379999996E-5</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2.0434476983000001E-5</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>9.8102369555249407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>29.430710866574824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2353,39 +2755,43 @@
         <v>1.18</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17999999999999994</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>9.0816590014457503</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>19.125180183235301</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.2723757081875</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>3.910142815E-6</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>6.7291587166000002E-5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1.6059110879999999E-5</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>9.5788804927771878</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>24.525592388812356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2399,39 +2805,43 @@
         <v>1.2450000000000001</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.24500000000000011</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>7.0680552022836096</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>17.1752847967762</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.01747083110081</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>-1.2933535759999999E-6</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>6.2490134155999995E-5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.2841864859E-5</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>9.3254775931613683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>21.021936333267728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2445,39 +2855,43 @@
         <v>1.32</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.32000000000000006</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>5.5578523529119996</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>15.7128632569319</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.82230654596894204</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>-5.1959758690000003E-6</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5.8889044398999998E-5</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1.0378626307999999E-5</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>9.0566752028708617</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>18.394194291609264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2491,39 +2905,43 @@
         <v>1.405</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.40500000000000003</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>4.3832501367340804</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>14.575424281497501</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.66815024875268703</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>-8.2313487639999997E-6</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5.6088196810000001E-5</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>8.432964305E-6</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="S11">
-        <f t="shared" si="0"/>
-        <v>8.7784450817136399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>16.350394925874902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2537,538 +2955,586 @@
         <v>1.5</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>3.44356836379175</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>13.6654731011499</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.54333724344805601</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>-1.0659647079999999E-5</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>5.3847518738999998E-5</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>6.8576545290000001E-6</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>8.495914420629509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>14.715355433287412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>-1</v>
       </c>
       <c r="C13">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.0095773487719502</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>13.0509055232843</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.54333724344805601</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>-1.5830765858E-5</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.3847518738999998E-5</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f>_xlfn.SEC(POWER((PI()*P$1)/(2*P$2),1/2))*(1-0.025*(P$1/P$2)^2+0.06*(P$1/P$2)^4)*P$3*POWER(P$1/D13,1/2)</f>
-        <v>10.405327614447835</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+        <v>6.8576545290000001E-6</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>14.715355433287412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="C14">
         <v>-1</v>
       </c>
       <c r="D14">
-        <v>1.5</v>
+        <v>1.7124999999999999</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.71249999999999991</v>
       </c>
       <c r="F14">
-        <v>2.0095773487719502</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>13.0509055232843</v>
+        <v>1.7173835037732099</v>
       </c>
       <c r="H14">
-        <v>0.54333724344805601</v>
+        <v>12.5013848950002</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.40191648550942399</v>
       </c>
       <c r="J14">
-        <v>-1.5830765858E-5</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>5.3847518738999998E-5</v>
+        <v>-1.6081170488E-5</v>
       </c>
       <c r="L14">
-        <v>6.8576545290000001E-6</v>
+        <v>5.1973207223000002E-5</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="0"/>
-        <v>8.495914420629509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+        <v>5.0727323410000001E-6</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>12.327168270267737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="C15">
         <v>-1</v>
       </c>
       <c r="D15">
-        <v>1.7124999999999999</v>
+        <v>1.925</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.92500000000000004</v>
       </c>
       <c r="F15">
-        <v>1.7173835037732099</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>12.5013848950002</v>
+        <v>1.45120943010198</v>
       </c>
       <c r="H15">
-        <v>0.40191648550942399</v>
+        <v>12.0125770664804</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.27839595493226599</v>
       </c>
       <c r="J15">
-        <v>-1.6081170488E-5</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>5.1973207223000002E-5</v>
+        <v>-1.6331575119000001E-5</v>
       </c>
       <c r="L15">
-        <v>5.0727323410000001E-6</v>
+        <v>5.0317832295000002E-5</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>7.9513426406608616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+        <v>3.5137353540000001E-6</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>10.818944483860465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="C16">
         <v>-1</v>
       </c>
       <c r="D16">
-        <v>1.925</v>
+        <v>2.1375000000000002</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.1375000000000002</v>
       </c>
       <c r="F16">
-        <v>1.45120943010198</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>12.0125770664804</v>
+        <v>1.21105512775826</v>
       </c>
       <c r="H16">
-        <v>0.27839595493226599</v>
+        <v>11.584482037724699</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.17277565171657699</v>
       </c>
       <c r="J16">
-        <v>-1.6331575119000001E-5</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>5.0317832295000002E-5</v>
+        <v>-1.6581979750000001E-5</v>
       </c>
       <c r="L16">
-        <v>3.5137353540000001E-6</v>
+        <v>4.8881393953999998E-5</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>7.4996395675813323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+        <v>2.180663565E-6</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>9.7561856518742989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="C17">
         <v>-1</v>
       </c>
       <c r="D17">
-        <v>2.1375000000000002</v>
+        <v>2.35</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="F17">
-        <v>1.21105512775826</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>11.584482037724699</v>
+        <v>0.99692059674204803</v>
       </c>
       <c r="H17">
-        <v>0.17277565171657699</v>
+        <v>11.2170998087333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>8.5055575862359997E-2</v>
       </c>
       <c r="J17">
-        <v>-1.6581979750000001E-5</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>4.8881393953999998E-5</v>
+        <v>-1.6832384380000001E-5</v>
       </c>
       <c r="L17">
-        <v>2.180663565E-6</v>
+        <v>4.7663892199999997E-5</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="0"/>
-        <v>7.1170939191848905</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1.073516977E-6</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>8.955480125019692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>-1</v>
       </c>
       <c r="D18">
-        <v>2.35</v>
+        <v>2.5625</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.5625</v>
       </c>
       <c r="F18">
-        <v>0.99692059674204803</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>11.2170998087333</v>
+        <v>0.80880583705333198</v>
       </c>
       <c r="H18">
-        <v>8.5055575862359997E-2</v>
+        <v>10.9104303795059</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.5235727369618E-2</v>
       </c>
       <c r="J18">
-        <v>-1.6832384380000001E-5</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>4.7663892199999997E-5</v>
+        <v>-1.7082789010999999E-5</v>
       </c>
       <c r="L18">
-        <v>1.073516977E-6</v>
+        <v>4.6665327033E-5</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="0"/>
-        <v>6.787687312222527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1.92295588E-7</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>8.3242620915582677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C19">
         <v>-1</v>
       </c>
       <c r="D19">
-        <v>2.5625</v>
+        <v>2.7749999999999999</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.7749999999999999</v>
       </c>
       <c r="F19">
-        <v>0.80880583705333198</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>10.9104303795059</v>
+        <v>0.64671084869212203</v>
       </c>
       <c r="H19">
-        <v>1.5235727369618E-2</v>
+        <v>10.6644737500428</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>-3.6683893761656997E-2</v>
       </c>
       <c r="J19">
-        <v>-1.7082789010999999E-5</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>4.6665327033E-5</v>
+        <v>-1.7333193641999999E-5</v>
       </c>
       <c r="L19">
-        <v>1.92295588E-7</v>
+        <v>4.5885698453999998E-5</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="0"/>
-        <v>6.5001566289268542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-4.6300060100000001E-7</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>7.8100997365722549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C20">
         <v>-1</v>
       </c>
       <c r="D20">
-        <v>2.7749999999999999</v>
+        <v>2.9874999999999998</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.9874999999999998</v>
       </c>
       <c r="F20">
-        <v>0.64671084869212203</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>10.6644737500428</v>
+        <v>0.51063563165841996</v>
       </c>
       <c r="H20">
-        <v>-3.6683893761656997E-2</v>
+        <v>10.479229920343901</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>-7.0703287531458006E-2</v>
       </c>
       <c r="J20">
-        <v>-1.7333193641999999E-5</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>4.5885698453999998E-5</v>
+        <v>-1.7583598271999999E-5</v>
       </c>
       <c r="L20">
-        <v>-4.6300060100000001E-7</v>
+        <v>4.5325006462E-5</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="0"/>
-        <v>6.2463205101044563</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-8.9237158999999999E-7</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>7.3807788024238858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C21">
         <v>-1</v>
       </c>
       <c r="D21">
-        <v>2.9874999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F21">
-        <v>0.51063563165841996</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>10.479229920343901</v>
+        <v>0.400580185952226</v>
       </c>
       <c r="H21">
-        <v>-7.0703287531458006E-2</v>
+        <v>10.3546988904091</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>-8.6822453939786007E-2</v>
       </c>
       <c r="J21">
-        <v>-1.7583598271999999E-5</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>4.5325006462E-5</v>
+        <v>-1.7834002903E-5</v>
       </c>
       <c r="L21">
-        <v>-8.9237158999999999E-7</v>
+        <v>4.4983251056999997E-5</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="0"/>
-        <v>6.0200736109148778</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-1.0958173799999999E-6</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>7.0152704465457045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C22">
         <v>-1</v>
       </c>
       <c r="D22">
-        <v>3.2</v>
+        <v>3.4125000000000001</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.4125000000000001</v>
       </c>
       <c r="F22">
-        <v>0.400580185952226</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>10.3546988904091</v>
+        <v>0.31654451157353602</v>
       </c>
       <c r="H22">
-        <v>-8.6822453939786007E-2</v>
+        <v>10.2908806602385</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>-8.5041392986640998E-2</v>
       </c>
       <c r="J22">
-        <v>-1.7834002903E-5</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>4.4983251056999997E-5</v>
+        <v>-1.8084407534E-5</v>
       </c>
       <c r="L22">
-        <v>-1.0958173799999999E-6</v>
+        <v>4.4860432238999998E-5</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="0"/>
-        <v>5.8167549685152702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-1.07333797E-6</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>6.6991869513328295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>-1</v>
       </c>
       <c r="D23">
-        <v>3.4125000000000001</v>
+        <v>3.625</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.625</v>
       </c>
       <c r="F23">
-        <v>0.31654451157353602</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>10.2908806602385</v>
+        <v>0.25852860852234799</v>
       </c>
       <c r="H23">
-        <v>-8.5041392986640998E-2</v>
+        <v>10.2877752298321</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>-6.5360104672024993E-2</v>
       </c>
       <c r="J23">
-        <v>-1.8084407534E-5</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>4.4860432238999998E-5</v>
+        <v>-1.8334812164000001E-5</v>
       </c>
       <c r="L23">
-        <v>-1.07333797E-6</v>
+        <v>4.4956550009000002E-5</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="0"/>
-        <v>5.6327364123735917</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-8.2493336000000003E-7</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>6.4223076334494529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -3077,493 +3543,537 @@
         <v>3.625</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.625</v>
       </c>
       <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>0.25852860852234799</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>10.2877752298321</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-6.5360104672024993E-2</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>-1.8334812164000001E-5</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>4.4956550009000002E-5</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-8.2493336000000003E-7</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="0"/>
-        <v>5.4651458071596464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>6.4223076334494529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>5</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="C25">
         <v>-1</v>
       </c>
       <c r="D25">
-        <v>3.625</v>
+        <v>3.8374999999999999</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.8374999999999999</v>
       </c>
       <c r="F25">
-        <v>0.25852860852234799</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>10.2877752298321</v>
+        <v>0.265461401300287</v>
       </c>
       <c r="H25">
-        <v>-6.5360104672024993E-2</v>
+        <v>10.332918660719701</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>-3.8718287882093999E-2</v>
       </c>
       <c r="J25">
-        <v>-1.8334812164000001E-5</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>4.4956550009000002E-5</v>
+        <v>-1.8389652438999999E-5</v>
       </c>
       <c r="L25">
-        <v>-8.2493336000000003E-7</v>
+        <v>4.5142844829E-5</v>
       </c>
       <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="0"/>
-        <v>5.4651458071596464</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-4.8867742000000002E-7</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>6.177145392749674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="C26">
         <v>-1</v>
       </c>
       <c r="D26">
-        <v>3.8374999999999999</v>
+        <v>4.05</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.05</v>
       </c>
       <c r="F26">
-        <v>0.265461401300287</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>10.332918660719701</v>
+        <v>0.26780881398630602</v>
       </c>
       <c r="H26">
-        <v>-3.8718287882093999E-2</v>
+        <v>10.3673628713928</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>-1.6055641503015999E-2</v>
       </c>
       <c r="J26">
-        <v>-1.8389652438999999E-5</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>4.5142844829E-5</v>
+        <v>-1.8444492714E-5</v>
       </c>
       <c r="L26">
-        <v>-4.8867742000000002E-7</v>
+        <v>4.5290557162999997E-5</v>
       </c>
       <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="0"/>
-        <v>5.3116758555587005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-2.0264401899999999E-7</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>5.9580732600229256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>5</v>
       </c>
       <c r="B27">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="C27">
         <v>-1</v>
       </c>
       <c r="D27">
-        <v>4.05</v>
+        <v>4.2625000000000002</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.2625000000000002</v>
       </c>
       <c r="F27">
-        <v>0.26780881398630602</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>10.3673628713928</v>
+        <v>0.26557084658040297</v>
       </c>
       <c r="H27">
-        <v>-1.6055641503015999E-2</v>
+        <v>10.391107861851401</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2.6278344652280001E-3</v>
       </c>
       <c r="J27">
-        <v>-1.8444492714E-5</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>4.5290557162999997E-5</v>
+        <v>-1.8499332989000001E-5</v>
       </c>
       <c r="L27">
-        <v>-2.0264401899999999E-7</v>
+        <v>4.5399687009999999E-5</v>
       </c>
       <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="0"/>
-        <v>5.1704488609024626</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+        <v>3.3166843000000001E-8</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>5.7607694985146125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>5</v>
       </c>
       <c r="B28">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="C28">
         <v>-1</v>
       </c>
       <c r="D28">
-        <v>4.2625000000000002</v>
+        <v>4.4749999999999996</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.4749999999999996</v>
       </c>
       <c r="F28">
-        <v>0.26557084658040297</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>10.391107861851401</v>
+        <v>0.25874749908257799</v>
       </c>
       <c r="H28">
-        <v>2.6278344652280001E-3</v>
+        <v>10.4041536320956</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1.7332140022623E-2</v>
       </c>
       <c r="J28">
-        <v>-1.8499332989000001E-5</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>4.5399687009999999E-5</v>
+        <v>-1.8554173263999999E-5</v>
       </c>
       <c r="L28">
-        <v>3.3166843000000001E-8</v>
+        <v>4.5470234372000001E-5</v>
       </c>
       <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="0"/>
-        <v>5.0399190694053972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+        <v>2.1875516499999999E-7</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>5.5818524751542666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>5</v>
       </c>
       <c r="B29">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>-1</v>
       </c>
       <c r="D29">
-        <v>4.4749999999999996</v>
+        <v>4.6875</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.6875</v>
       </c>
       <c r="F29">
-        <v>0.25874749908257799</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>10.4041536320956</v>
+        <v>0.24733877149283101</v>
       </c>
       <c r="H29">
-        <v>1.7332140022623E-2</v>
+        <v>10.4065001821252</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2.8057275169183001E-2</v>
       </c>
       <c r="J29">
-        <v>-1.8554173263999999E-5</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>4.5470234372000001E-5</v>
+        <v>-1.8609013539E-5</v>
       </c>
       <c r="L29">
-        <v>2.1875516499999999E-7</v>
+        <v>4.5502199247000002E-5</v>
       </c>
       <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="0"/>
-        <v>4.9188008431903381</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+        <v>3.54120949E-7</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>5.4186330820946296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C30">
         <v>-1</v>
       </c>
       <c r="D30">
-        <v>4.6875</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
       </c>
       <c r="F30">
-        <v>0.24733877149283101</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>10.4065001821252</v>
+        <v>0.231344663811162</v>
       </c>
       <c r="H30">
-        <v>2.8057275169183001E-2</v>
+        <v>10.398147511940399</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>3.4803239904890003E-2</v>
       </c>
       <c r="J30">
-        <v>-1.8609013539E-5</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>4.5502199247000002E-5</v>
+        <v>-1.8663853814000001E-5</v>
       </c>
       <c r="L30">
-        <v>3.54120949E-7</v>
+        <v>4.5495581636000001E-5</v>
       </c>
       <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="0"/>
-        <v>4.8060149593661636</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+        <v>4.3926419299999999E-7</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>5.2689424512770495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>5</v>
       </c>
       <c r="B31">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C31">
         <v>-1</v>
       </c>
       <c r="D31">
-        <v>4.9000000000000004</v>
+        <v>5.1124999999999998</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.1124999999999998</v>
       </c>
       <c r="F31">
-        <v>0.231344663811162</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>10.398147511940399</v>
+        <v>0.210765176037572</v>
       </c>
       <c r="H31">
-        <v>3.4803239904890003E-2</v>
+        <v>10.379095621541101</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>3.7570034229755002E-2</v>
       </c>
       <c r="J31">
-        <v>-1.8663853814000001E-5</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>4.5495581636000001E-5</v>
+        <v>-1.8718694087999999E-5</v>
       </c>
       <c r="L31">
-        <v>4.3926419299999999E-7</v>
+        <v>4.5450381538999999E-5</v>
       </c>
       <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="0"/>
-        <v>4.7006478659859319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+        <v>4.7418489800000001E-7</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>5.1310093158312107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>5</v>
       </c>
       <c r="B32">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C32">
         <v>-1</v>
       </c>
       <c r="D32">
-        <v>5.1124999999999998</v>
+        <v>5.3249999999999904</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.3249999999999904</v>
       </c>
       <c r="F32">
-        <v>0.210765176037572</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>10.379095621541101</v>
+        <v>0.185600308172062</v>
       </c>
       <c r="H32">
-        <v>3.7570034229755002E-2</v>
+        <v>10.349344510927301</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>3.6357658143776998E-2</v>
       </c>
       <c r="J32">
-        <v>-1.8718694087999999E-5</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>4.5450381538999999E-5</v>
+        <v>-1.8773534363E-5</v>
       </c>
       <c r="L32">
-        <v>4.7418489800000001E-7</v>
+        <v>4.5366598954999997E-5</v>
       </c>
       <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="0"/>
-        <v>4.6019203552736316</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+        <v>4.5888306399999999E-7</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>5.003370950697831</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C33">
         <v>-1</v>
       </c>
       <c r="D33">
-        <v>5.3249999999999904</v>
+        <v>5.5374999999999996</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.5374999999999996</v>
       </c>
       <c r="F33">
-        <v>0.185600308172062</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>10.349344510927301</v>
+        <v>0.15585006021463199</v>
       </c>
       <c r="H33">
-        <v>3.6357658143776998E-2</v>
+        <v>10.308894180098999</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>3.1166111646962001E-2</v>
       </c>
       <c r="J33">
-        <v>-1.8773534363E-5</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>4.5366598954999997E-5</v>
+        <v>-1.8828374638000001E-5</v>
       </c>
       <c r="L33">
-        <v>4.5888306399999999E-7</v>
+        <v>4.5244233885E-5</v>
       </c>
       <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="0"/>
-        <v>4.5091631853078207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+        <v>3.9335869099999999E-7</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>4.8848073409198323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>5</v>
       </c>
       <c r="B34">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>-1</v>
       </c>
       <c r="D34">
-        <v>5.5374999999999996</v>
+        <v>5.75</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.75</v>
       </c>
       <c r="F34">
-        <v>0.15585006021463199</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>10.308894180098999</v>
+        <v>0.12151443216527499</v>
       </c>
       <c r="H34">
-        <v>3.1166111646962001E-2</v>
+        <v>10.2577446290562</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2.1995394739297E-2</v>
       </c>
       <c r="J34">
-        <v>-1.8828374638000001E-5</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>4.5244233885E-5</v>
+        <v>-1.8883214912999999E-5</v>
       </c>
       <c r="L34">
-        <v>3.9335869099999999E-7</v>
+        <v>4.5083286330000002E-5</v>
       </c>
       <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="0"/>
-        <v>4.4217978992338338</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+        <v>2.77611778E-7</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>4.774291741664344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -3572,493 +4082,537 @@
         <v>5.75</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.75</v>
       </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>0.12151443216527499</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>10.2577446290562</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>2.1995394739297E-2</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>-1.8883214912999999E-5</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>4.5083286330000002E-5</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>2.77611778E-7</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="0"/>
-        <v>4.3393215811969794</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>4.774291741664344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>6</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="C36">
         <v>-1</v>
       </c>
       <c r="D36">
-        <v>5.75</v>
+        <v>5.9625000000000004</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.9625000000000004</v>
       </c>
       <c r="F36">
-        <v>0.12151443216527499</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>10.2577446290562</v>
+        <v>0.100060649083186</v>
       </c>
       <c r="H36">
-        <v>2.1995394739297E-2</v>
+        <v>10.2101005525478</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1.1664600916998001E-2</v>
       </c>
       <c r="J36">
-        <v>-1.8883214912999999E-5</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>4.5083286330000002E-5</v>
+        <v>-1.8887786528000001E-5</v>
       </c>
       <c r="L36">
-        <v>2.77611778E-7</v>
+        <v>4.4913436162999999E-5</v>
       </c>
       <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="0"/>
-        <v>4.3393215811969794</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1.47223118E-7</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="1"/>
+        <v>4.6709530149970959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>6</v>
       </c>
       <c r="B37">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="C37">
         <v>-1</v>
       </c>
       <c r="D37">
-        <v>5.9625000000000004</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.1749999999999998</v>
       </c>
       <c r="F37">
-        <v>0.100060649083186</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>10.2101005525478</v>
+        <v>8.107616411877E-2</v>
       </c>
       <c r="H37">
-        <v>1.1664600916998001E-2</v>
+        <v>10.168218171647201</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2.9928236762229998E-3</v>
       </c>
       <c r="J37">
-        <v>-1.8887786528000001E-5</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>4.4913436162999999E-5</v>
+        <v>-1.8892358144E-5</v>
       </c>
       <c r="L37">
-        <v>1.47223118E-7</v>
+        <v>4.4764363263000003E-5</v>
       </c>
       <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="0"/>
-        <v>4.261294628408514</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+        <v>3.7773503000000002E-8</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="1"/>
+        <v>4.574046565501912</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>6</v>
       </c>
       <c r="B38">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="C38">
         <v>-1</v>
       </c>
       <c r="D38">
-        <v>6.1749999999999998</v>
+        <v>6.3875000000000002</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.3875000000000002</v>
       </c>
       <c r="F38">
-        <v>8.107616411877E-2</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>10.168218171647201</v>
+        <v>6.4560977272018996E-2</v>
       </c>
       <c r="H38">
-        <v>2.9928236762229998E-3</v>
+        <v>10.1320974863545</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>-4.0199369829900002E-3</v>
       </c>
       <c r="J38">
-        <v>-1.8892358144E-5</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>4.4764363263000003E-5</v>
+        <v>-1.8896929759000001E-5</v>
       </c>
       <c r="L38">
-        <v>3.7773503000000002E-8</v>
+        <v>4.4636067627999999E-5</v>
       </c>
       <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="0"/>
-        <v>4.1873308585380355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-5.0737068999999998E-8</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="1"/>
+        <v>4.48293164693471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>6</v>
       </c>
       <c r="B39">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="C39">
         <v>-1</v>
       </c>
       <c r="D39">
-        <v>6.3875000000000002</v>
+        <v>6.6</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.6</v>
       </c>
       <c r="F39">
-        <v>6.4560977272018996E-2</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>10.1320974863545</v>
+        <v>5.0515088542922998E-2</v>
       </c>
       <c r="H39">
-        <v>-4.0199369829900002E-3</v>
+        <v>10.1017384966697</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>-9.3736810606559993E-3</v>
       </c>
       <c r="J39">
-        <v>-1.8896929759000001E-5</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>4.4636067627999999E-5</v>
+        <v>-1.8901501373999999E-5</v>
       </c>
       <c r="L39">
-        <v>-5.0737068999999998E-8</v>
+        <v>4.4528549259000002E-5</v>
       </c>
       <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="0"/>
-        <v>4.1170894429976101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-1.1830859599999999E-7</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="1"/>
+        <v>4.3970534525973566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>6</v>
       </c>
       <c r="B40">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>-1</v>
       </c>
       <c r="D40">
-        <v>6.6</v>
+        <v>6.8125</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.8125</v>
       </c>
       <c r="F40">
-        <v>5.0515088542922998E-2</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>10.1017384966697</v>
+        <v>3.8938497931498998E-2</v>
       </c>
       <c r="H40">
-        <v>-9.3736810606559993E-3</v>
+        <v>10.077141202592699</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>-1.3068408556776E-2</v>
       </c>
       <c r="J40">
-        <v>-1.8901501373999999E-5</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>4.4528549259000002E-5</v>
+        <v>-1.8906072990000001E-5</v>
       </c>
       <c r="L40">
-        <v>-1.1830859599999999E-7</v>
+        <v>4.4441808156000003E-5</v>
       </c>
       <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="0"/>
-        <v>4.0502682807511894</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-1.6494107899999999E-7</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="1"/>
+        <v>4.3159288416107904</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>6</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C41">
         <v>-1</v>
       </c>
       <c r="D41">
-        <v>6.8125</v>
+        <v>7.0250000000000004</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.0250000000000004</v>
       </c>
       <c r="F41">
-        <v>3.8938497931498998E-2</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>10.077141202592699</v>
+        <v>2.9831205437732999E-2</v>
       </c>
       <c r="H41">
-        <v>-1.3068408556776E-2</v>
+        <v>10.058305604123699</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>-1.5104119471348E-2</v>
       </c>
       <c r="J41">
-        <v>-1.8906072990000001E-5</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>4.4441808156000003E-5</v>
+        <v>-1.8910644605E-5</v>
       </c>
       <c r="L41">
-        <v>-1.6494107899999999E-7</v>
+        <v>4.4375844318999997E-5</v>
       </c>
       <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="0"/>
-        <v>3.9865985181822539</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-1.9063451800000001E-7</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="1"/>
+        <v>4.2391348597524674</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>6</v>
       </c>
       <c r="B42">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C42">
         <v>-1</v>
       </c>
       <c r="D42">
-        <v>7.0250000000000004</v>
+        <v>7.2374999999999998</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.2374999999999998</v>
       </c>
       <c r="F42">
-        <v>2.9831205437732999E-2</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>10.058305604123699</v>
+        <v>2.3193211061637999E-2</v>
       </c>
       <c r="H42">
-        <v>-1.5104119471348E-2</v>
+        <v>10.0452317012625</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>-1.5480813804375E-2</v>
       </c>
       <c r="J42">
-        <v>-1.8910644605E-5</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>4.4375844318999997E-5</v>
+        <v>-1.8915216220999998E-5</v>
       </c>
       <c r="L42">
-        <v>-1.9063451800000001E-7</v>
+        <v>4.4330657746999997E-5</v>
       </c>
       <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="0"/>
-        <v>3.9258399878920787</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-1.95388912E-7</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="1"/>
+        <v>4.1662994304450507</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>6</v>
       </c>
       <c r="B43">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C43">
         <v>-1</v>
       </c>
       <c r="D43">
-        <v>7.2374999999999998</v>
+        <v>7.4499999999999904</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.4499999999999904</v>
       </c>
       <c r="F43">
-        <v>2.3193211061637999E-2</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>10.0452317012625</v>
+        <v>1.9024514803203999E-2</v>
       </c>
       <c r="H43">
-        <v>-1.5480813804375E-2</v>
+        <v>10.0379194940092</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>-1.419849155585E-2</v>
       </c>
       <c r="J43">
-        <v>-1.8915216220999998E-5</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>4.4330657746999997E-5</v>
+        <v>-1.8919787836E-5</v>
       </c>
       <c r="L43">
-        <v>-1.95388912E-7</v>
+        <v>4.4306248440999997E-5</v>
       </c>
       <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="0"/>
-        <v>3.8677773897036372</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-1.7920426199999999E-7</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="1"/>
+        <v>4.0970937471226794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>6</v>
       </c>
       <c r="B44">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C44">
         <v>-1</v>
       </c>
       <c r="D44">
-        <v>7.4499999999999904</v>
+        <v>7.6624999999999996</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.6624999999999996</v>
       </c>
       <c r="F44">
-        <v>1.9024514803203999E-2</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>10.0379194940092</v>
+        <v>1.7325116662436999E-2</v>
       </c>
       <c r="H44">
-        <v>-1.419849155585E-2</v>
+        <v>10.0363689823638</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>-1.1257152725766001E-2</v>
       </c>
       <c r="J44">
-        <v>-1.8919787836E-5</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>4.4306248440999997E-5</v>
+        <v>-1.8924359451000002E-5</v>
       </c>
       <c r="L44">
-        <v>-1.7920426199999999E-7</v>
+        <v>4.4302616400000002E-5</v>
       </c>
       <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="0"/>
-        <v>3.8122170752363509</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-1.4208056800000001E-7</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="1"/>
+        <v>4.0312260112861322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>6</v>
       </c>
       <c r="B45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>-1</v>
       </c>
       <c r="D45">
-        <v>7.6624999999999996</v>
+        <v>7.875</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.875</v>
       </c>
       <c r="F45">
-        <v>1.7325116662436999E-2</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>10.0363689823638</v>
+        <v>1.8095016639327999E-2</v>
       </c>
       <c r="H45">
-        <v>-1.1257152725766001E-2</v>
+        <v>10.040580166326301</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>-6.6567973141459999E-3</v>
       </c>
       <c r="J45">
-        <v>-1.8924359451000002E-5</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>4.4302616400000002E-5</v>
+        <v>-1.8928931067E-5</v>
       </c>
       <c r="L45">
-        <v>-1.4208056800000001E-7</v>
+        <v>4.4319761626E-5</v>
       </c>
       <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="0"/>
-        <v>3.7589843264623117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-8.4017829999999997E-8</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="1"/>
+        <v>3.9684362436880374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C46">
         <v>-1</v>
@@ -4067,535 +4621,535 @@
         <v>7.875</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.875</v>
       </c>
       <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
         <v>1.8095016639327999E-2</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>10.040580166326301</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>-6.6567973141459999E-3</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>-1.8928931067E-5</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>4.4319761626E-5</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>-8.4017829999999997E-8</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="0"/>
-        <v>3.7079210409906298</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="1"/>
+        <v>3.9684362436880374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>7</v>
       </c>
       <c r="B47">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="C47">
         <v>-1</v>
       </c>
       <c r="D47">
-        <v>7.875</v>
+        <v>8.0875000000000004</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.0875000000000004</v>
       </c>
       <c r="F47">
-        <v>1.8095016639327999E-2</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>10.040580166326301</v>
+        <v>2.4537058275298E-2</v>
       </c>
       <c r="H47">
-        <v>-6.6567973141459999E-3</v>
+        <v>10.047385974906399</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>-1.7710690498E-3</v>
       </c>
       <c r="J47">
-        <v>-1.8928931067E-5</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>4.4319761626E-5</v>
+        <v>-1.8913358287E-5</v>
       </c>
       <c r="L47">
-        <v>-8.4017829999999997E-8</v>
+        <v>4.4337630022000003E-5</v>
       </c>
       <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="0"/>
-        <v>3.7079210409906298</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-2.2353299000000001E-8</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="1"/>
+        <v>3.9084919578643169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>7</v>
       </c>
       <c r="B48">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="C48">
         <v>-1</v>
       </c>
       <c r="D48">
-        <v>8.0875000000000004</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.3000000000000007</v>
       </c>
       <c r="F48">
-        <v>2.4537058275298E-2</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>10.047385974906399</v>
+        <v>2.8681693895502999E-2</v>
       </c>
       <c r="H48">
-        <v>-1.7710690498E-3</v>
+        <v>10.0488311694497</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2.0263883385040001E-3</v>
       </c>
       <c r="J48">
-        <v>-1.8913358287E-5</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>4.4337630022000003E-5</v>
+        <v>-1.8897785508E-5</v>
       </c>
       <c r="L48">
-        <v>-2.2353299000000001E-8</v>
+        <v>4.4336167493000003E-5</v>
       </c>
       <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="0"/>
-        <v>3.6588837541393513</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
+        <v>2.5575775000000001E-8</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="1"/>
+        <v>3.8511845316002553</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>7</v>
       </c>
       <c r="B49">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="C49">
         <v>-1</v>
       </c>
       <c r="D49">
-        <v>8.3000000000000007</v>
+        <v>8.5124999999999904</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.5124999999999904</v>
       </c>
       <c r="F49">
-        <v>2.8681693895502999E-2</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>10.0488311694497</v>
+        <v>3.0528923499934E-2</v>
       </c>
       <c r="H49">
-        <v>2.0263883385040001E-3</v>
+        <v>10.0449157499562</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>4.7355748507319998E-3</v>
       </c>
       <c r="J49">
-        <v>-1.8897785508E-5</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>4.4336167493000003E-5</v>
+        <v>-1.8882212729E-5</v>
       </c>
       <c r="L49">
-        <v>2.5575775000000001E-8</v>
+        <v>4.4315374040000001E-5</v>
       </c>
       <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="0"/>
-        <v>3.6117419413744405</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5.9769391E-8</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="1"/>
+        <v>3.7963261470585881</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>7</v>
       </c>
       <c r="B50">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="C50">
         <v>-1</v>
       </c>
       <c r="D50">
-        <v>8.5124999999999904</v>
+        <v>8.7249999999999996</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.7249999999999996</v>
       </c>
       <c r="F50">
-        <v>3.0528923499934E-2</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>10.0449157499562</v>
+        <v>3.0078747088598E-2</v>
       </c>
       <c r="H50">
-        <v>4.7355748507319998E-3</v>
+        <v>10.0356397164258</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>6.3564904868950002E-3</v>
       </c>
       <c r="J50">
-        <v>-1.8882212729E-5</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>4.4315374040000001E-5</v>
+        <v>-1.8866639949E-5</v>
       </c>
       <c r="L50">
-        <v>5.9769391E-8</v>
+        <v>4.4275249663000003E-5</v>
       </c>
       <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="0"/>
-        <v>3.5663765553274822</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
+        <v>8.0227550000000004E-8</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="1"/>
+        <v>3.7437471971601859</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>7</v>
       </c>
       <c r="B51">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>-1</v>
       </c>
       <c r="D51">
-        <v>8.7249999999999996</v>
+        <v>8.9375</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.9375</v>
       </c>
       <c r="F51">
-        <v>3.0078747088598E-2</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>10.0356397164258</v>
+        <v>2.7331164661485999E-2</v>
       </c>
       <c r="H51">
-        <v>6.3564904868950002E-3</v>
+        <v>10.0210030688587</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>6.8891352469999997E-3</v>
       </c>
       <c r="J51">
-        <v>-1.8866639949E-5</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>4.4275249663000003E-5</v>
+        <v>-1.885106717E-5</v>
       </c>
       <c r="L51">
-        <v>8.0227550000000004E-8</v>
+        <v>4.4215794361000002E-5</v>
       </c>
       <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <f t="shared" si="0"/>
-        <v>3.5226787600209382</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
+        <v>8.6950251000000005E-8</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="1"/>
+        <v>3.6932940765150111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>7</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C52">
         <v>-1</v>
       </c>
       <c r="D52">
-        <v>8.9375</v>
+        <v>9.15</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.15</v>
       </c>
       <c r="F52">
-        <v>2.7331164661485999E-2</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>10.0210030688587</v>
+        <v>2.2286176218605E-2</v>
       </c>
       <c r="H52">
-        <v>6.8891352469999997E-3</v>
+        <v>10.001005807254799</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>6.3335091310130001E-3</v>
       </c>
       <c r="J52">
-        <v>-1.885106717E-5</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>4.4215794361000002E-5</v>
+        <v>-1.8835494391E-5</v>
       </c>
       <c r="L52">
-        <v>8.6950251000000005E-8</v>
+        <v>4.4137008134999999E-5</v>
       </c>
       <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="0"/>
-        <v>3.4805488316352577</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
+        <v>7.9937494000000002E-8</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="1"/>
+        <v>3.6448272912871658</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>7</v>
       </c>
       <c r="B53">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C53">
         <v>-1</v>
       </c>
       <c r="D53">
-        <v>9.15</v>
+        <v>9.3625000000000007</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.3625000000000007</v>
       </c>
       <c r="F53">
-        <v>2.2286176218605E-2</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>10.001005807254799</v>
+        <v>1.4943781759953E-2</v>
       </c>
       <c r="H53">
-        <v>6.3335091310130001E-3</v>
+        <v>9.9756479316141498</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>4.6896121389930004E-3</v>
       </c>
       <c r="J53">
-        <v>-1.8835494391E-5</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>4.4137008134999999E-5</v>
+        <v>-1.8819921611E-5</v>
       </c>
       <c r="L53">
-        <v>7.9937494000000002E-8</v>
+        <v>4.4038890985E-5</v>
       </c>
       <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="0"/>
-        <v>3.439895200525747</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5.9189279000000001E-8</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="1"/>
+        <v>3.5982198349664887</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>7</v>
       </c>
       <c r="B54">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C54">
         <v>-1</v>
       </c>
       <c r="D54">
-        <v>9.3625000000000007</v>
+        <v>9.5749999999999904</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.5749999999999904</v>
       </c>
       <c r="F54">
-        <v>1.4943781759953E-2</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>9.9756479316141498</v>
+        <v>5.3039812855259997E-3</v>
       </c>
       <c r="H54">
-        <v>4.6896121389930004E-3</v>
+        <v>9.9449294419366296</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1.957444270876E-3</v>
       </c>
       <c r="J54">
-        <v>-1.8819921611E-5</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>4.4038890985E-5</v>
+        <v>-1.8804348832E-5</v>
       </c>
       <c r="L54">
-        <v>5.9189279000000001E-8</v>
+        <v>4.3921442909999998E-5</v>
       </c>
       <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="0"/>
-        <v>3.4006336135280648</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
+        <v>2.4705607E-8</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="1"/>
+        <v>3.5533557869386443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>7</v>
       </c>
       <c r="B55">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C55">
         <v>-1</v>
       </c>
       <c r="D55">
-        <v>9.5749999999999904</v>
+        <v>9.7874999999999908</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.7874999999999908</v>
       </c>
       <c r="F55">
-        <v>5.3039812855259997E-3</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>9.9449294419366296</v>
+        <v>-6.6332252046610004E-3</v>
       </c>
       <c r="H55">
-        <v>1.957444270876E-3</v>
+        <v>9.9088503382223205</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>-1.8629944732970001E-3</v>
       </c>
       <c r="J55">
-        <v>-1.8804348832E-5</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>4.3921442909999998E-5</v>
+        <v>-1.8788776053E-5</v>
       </c>
       <c r="L55">
-        <v>2.4705607E-8</v>
+        <v>4.3784663911000001E-5</v>
       </c>
       <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="0"/>
-        <v>3.3626863991002125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-2.3513522000000001E-8</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="1"/>
+        <v>3.5101290986133393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>7</v>
       </c>
       <c r="B56">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>-1</v>
       </c>
       <c r="D56">
-        <v>9.7874999999999908</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F56">
-        <v>-6.6332252046610004E-3</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>9.9088503382223205</v>
+        <v>-2.0867837710625999E-2</v>
       </c>
       <c r="H56">
-        <v>-1.8629944732970001E-3</v>
+        <v>9.8674106204712206</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>-6.7717040935240001E-3</v>
       </c>
       <c r="J56">
-        <v>-1.8788776053E-5</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>4.3784663911000001E-5</v>
+        <v>-1.8773203273E-5</v>
       </c>
       <c r="L56">
-        <v>-2.3513522000000001E-8</v>
+        <v>4.3628553987000001E-5</v>
       </c>
       <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="0"/>
-        <v>3.3259818207067986</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>7</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>-1</v>
-      </c>
-      <c r="D57">
-        <v>10</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>-2.0867837710625999E-2</v>
-      </c>
-      <c r="G57">
-        <v>9.8674106204712206</v>
-      </c>
-      <c r="H57">
-        <v>-6.7717040935240001E-3</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>-1.8773203273E-5</v>
-      </c>
-      <c r="K57">
-        <v>4.3628553987000001E-5</v>
-      </c>
-      <c r="L57">
         <v>-8.5468109999999997E-8</v>
       </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <f t="shared" si="0"/>
-        <v>3.2904535061901523</v>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="1"/>
+        <v>3.4684425381492781</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>